--- a/实验内容/实验四/测试检查单/改进部分测试检查单.xlsx
+++ b/实验内容/实验四/测试检查单/改进部分测试检查单.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HMH/胡明昊/研究生期间/课件/研一下/软工实验/我们的/17TeamB_blade/实验内容/实验四/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16360"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否通过测试(P/S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未通过可能原因</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -836,12 +827,16 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>是否通过测试(P/F)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,6 +884,7 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1126,6 +1122,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1155,15 +1160,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -1511,120 +1507,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="55.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="60.1640625" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" customWidth="1"/>
-    <col min="7" max="7" width="37.83203125" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="55.875" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="60.125" customWidth="1"/>
+    <col min="6" max="6" width="32.125" customWidth="1"/>
+    <col min="7" max="7" width="37.875" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
     <col min="9" max="9" width="20.5" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.625" customWidth="1"/>
     <col min="11" max="11" width="20.5" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="I2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
+      <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="11">
         <v>42878</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13"/>
+      <c r="I4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -1633,7 +1629,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>11</v>
@@ -1648,167 +1644,167 @@
         <v>8</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="85.5">
       <c r="A6" s="6">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="85.5">
       <c r="A7" s="6">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="228">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="71.25">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="H9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1833,7 +1829,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
@@ -1850,7 +1846,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
